--- a/Ergebnisse_Summary_Reeval/Reeval_Taguchi_Modell_2/Reeval_Taguchi_Modell_2_summary.xlsx
+++ b/Ergebnisse_Summary_Reeval/Reeval_Taguchi_Modell_2/Reeval_Taguchi_Modell_2_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="87">
   <si>
     <t>timestamp</t>
   </si>
@@ -67,6 +67,21 @@
     <t>2025-11-22 12:37:19</t>
   </si>
   <si>
+    <t>2025-12-23 22:29:07</t>
+  </si>
+  <si>
+    <t>2025-12-23 22:29:08</t>
+  </si>
+  <si>
+    <t>2025-12-23 22:29:09</t>
+  </si>
+  <si>
+    <t>2025-12-23 22:29:10</t>
+  </si>
+  <si>
+    <t>2025-12-23 22:29:11</t>
+  </si>
+  <si>
     <t>Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0</t>
   </si>
   <si>
@@ -170,6 +185,96 @@
   </si>
   <si>
     <t>Ergebnisse/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999_482.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0_130.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0_138.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0_162.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0_221.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0_236.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0_359.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0_420.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0_471.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0_493.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_0_71.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42_155.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42_161.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42_220.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42_292.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42_336.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42_407.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42_419.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42_433.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42_443.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42_99.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999_163.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999_248.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999_328.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999_339.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999_357.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999_383.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999_392.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999_409.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999_446.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_999_482.keras</t>
   </si>
 </sst>
 </file>
@@ -527,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,13 +672,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -588,7 +693,7 @@
         <v>-0.3789240996690799</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -596,13 +701,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -617,7 +722,7 @@
         <v>0.1330779773123104</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -625,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -646,7 +751,7 @@
         <v>0.1605223546745216</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -654,13 +759,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -675,7 +780,7 @@
         <v>0.1540797795044659</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -683,13 +788,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>236</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -704,7 +809,7 @@
         <v>0.3084845478243784</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -712,13 +817,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>359</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -733,7 +838,7 @@
         <v>0.1861906881588221</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -741,13 +846,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>420</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -762,7 +867,7 @@
         <v>0.3141788560769152</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -770,13 +875,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>471</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -791,7 +896,7 @@
         <v>0.3806521225769737</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -799,13 +904,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>493</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -820,7 +925,7 @@
         <v>0.2271946498203101</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -828,13 +933,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -849,7 +954,7 @@
         <v>0.3087887599598903</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -857,13 +962,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -878,7 +983,7 @@
         <v>0.3142335544586849</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -886,13 +991,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -907,7 +1012,7 @@
         <v>0.3481174840008137</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -915,13 +1020,13 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>220</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -936,7 +1041,7 @@
         <v>0.2509098301729553</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -944,13 +1049,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>292</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -965,7 +1070,7 @@
         <v>0.399227500061588</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -973,13 +1078,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>336</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -994,7 +1099,7 @@
         <v>0.004979705703024084</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1002,13 +1107,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>407</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1023,7 +1128,7 @@
         <v>0.1784712349141608</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1031,13 +1136,13 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>419</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1052,7 +1157,7 @@
         <v>0.2029433165030232</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1060,13 +1165,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>433</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1081,7 +1186,7 @@
         <v>0.05279574674023968</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1089,13 +1194,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>443</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1110,7 +1215,7 @@
         <v>0.01396608339867211</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1118,13 +1223,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1139,7 +1244,7 @@
         <v>-0.229673672712754</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1147,13 +1252,13 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>163</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1168,7 +1273,7 @@
         <v>0.2239607827514378</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1176,13 +1281,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>248</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1197,7 +1302,7 @@
         <v>0.1549809999512276</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1205,13 +1310,13 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>328</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1226,7 +1331,7 @@
         <v>0.2781938929267633</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1234,13 +1339,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>339</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1255,7 +1360,7 @@
         <v>0.3817836648748577</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1263,13 +1368,13 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>357</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1284,7 +1389,7 @@
         <v>0.3690170463473798</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1292,13 +1397,13 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>383</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1313,7 +1418,7 @@
         <v>0.3663214689600175</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1321,13 +1426,13 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>392</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -1342,7 +1447,7 @@
         <v>0.3511748062915744</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1350,13 +1455,13 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C29">
         <v>409</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1371,7 +1476,7 @@
         <v>0.3367312489236782</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1379,13 +1484,13 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>446</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1400,7 +1505,7 @@
         <v>0.2782355758173189</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1408,13 +1513,13 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C31">
         <v>482</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1429,7 +1534,7 @@
         <v>-0.08493600026580972</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1437,13 +1542,13 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C32">
         <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1458,7 +1563,7 @@
         <v>-0.3789240996690799</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1466,13 +1571,13 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>138</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -1487,7 +1592,7 @@
         <v>0.1330779773123104</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1495,13 +1600,13 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>162</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1516,7 +1621,7 @@
         <v>0.1605223546745216</v>
       </c>
       <c r="I34" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1524,13 +1629,13 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C35">
         <v>221</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1545,7 +1650,7 @@
         <v>0.1540797795044659</v>
       </c>
       <c r="I35" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1553,13 +1658,13 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>236</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1574,7 +1679,7 @@
         <v>0.3084845478243784</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1582,13 +1687,13 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <v>359</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -1603,7 +1708,7 @@
         <v>0.1861906881588221</v>
       </c>
       <c r="I37" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1611,13 +1716,13 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C38">
         <v>420</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -1632,7 +1737,7 @@
         <v>0.3141788560769152</v>
       </c>
       <c r="I38" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1640,13 +1745,13 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>471</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1661,7 +1766,7 @@
         <v>0.3806521225769737</v>
       </c>
       <c r="I39" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1669,13 +1774,13 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>493</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -1690,7 +1795,7 @@
         <v>0.2271946498203101</v>
       </c>
       <c r="I40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1698,13 +1803,13 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C41">
         <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -1719,7 +1824,7 @@
         <v>0.3087887599598903</v>
       </c>
       <c r="I41" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1727,13 +1832,13 @@
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C42">
         <v>155</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -1748,7 +1853,7 @@
         <v>0.3142335544586849</v>
       </c>
       <c r="I42" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1756,13 +1861,13 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C43">
         <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1777,7 +1882,7 @@
         <v>0.3481174840008137</v>
       </c>
       <c r="I43" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1785,13 +1890,13 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C44">
         <v>220</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1806,7 +1911,7 @@
         <v>0.2509098301729553</v>
       </c>
       <c r="I44" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1814,13 +1919,13 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C45">
         <v>292</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -1835,7 +1940,7 @@
         <v>0.399227500061588</v>
       </c>
       <c r="I45" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1843,13 +1948,13 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C46">
         <v>336</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -1864,7 +1969,7 @@
         <v>0.004979705703024084</v>
       </c>
       <c r="I46" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1872,13 +1977,13 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C47">
         <v>407</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -1893,7 +1998,7 @@
         <v>0.1784712349141608</v>
       </c>
       <c r="I47" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1901,13 +2006,13 @@
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>419</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -1922,7 +2027,7 @@
         <v>0.2029433165030232</v>
       </c>
       <c r="I48" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1930,13 +2035,13 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C49">
         <v>433</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -1951,7 +2056,7 @@
         <v>0.05279574674023968</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1959,13 +2064,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <v>443</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1980,7 +2085,7 @@
         <v>0.01396608339867211</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1988,13 +2093,13 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C51">
         <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -2009,7 +2114,7 @@
         <v>-0.229673672712754</v>
       </c>
       <c r="I51" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2017,16 +2122,16 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C52">
         <v>163</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
       </c>
       <c r="F52">
         <v>90</v>
@@ -2038,7 +2143,7 @@
         <v>0.2239607827514378</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2046,16 +2151,16 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C53">
         <v>248</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
       </c>
       <c r="F53">
         <v>90</v>
@@ -2067,7 +2172,7 @@
         <v>0.1549809999512276</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2075,16 +2180,16 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C54">
         <v>328</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
       </c>
       <c r="F54">
         <v>90</v>
@@ -2096,7 +2201,7 @@
         <v>0.2781938929267633</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2104,16 +2209,16 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C55">
         <v>339</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
       </c>
       <c r="F55">
         <v>90</v>
@@ -2125,7 +2230,7 @@
         <v>0.3817836648748577</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2133,16 +2238,16 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C56">
         <v>357</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
       </c>
       <c r="F56">
         <v>90</v>
@@ -2154,7 +2259,7 @@
         <v>0.3690170463473798</v>
       </c>
       <c r="I56" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2162,16 +2267,16 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C57">
         <v>383</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
       </c>
       <c r="F57">
         <v>90</v>
@@ -2183,7 +2288,7 @@
         <v>0.3663214689600175</v>
       </c>
       <c r="I57" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2191,16 +2296,16 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C58">
         <v>392</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
       </c>
       <c r="F58">
         <v>90</v>
@@ -2212,7 +2317,7 @@
         <v>0.3511748062915744</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2220,16 +2325,16 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C59">
         <v>409</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
       </c>
       <c r="F59">
         <v>90</v>
@@ -2241,7 +2346,7 @@
         <v>0.3367312489236782</v>
       </c>
       <c r="I59" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2249,16 +2354,16 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C60">
         <v>446</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
       </c>
       <c r="F60">
         <v>90</v>
@@ -2270,7 +2375,7 @@
         <v>0.2782355758173189</v>
       </c>
       <c r="I60" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2278,16 +2383,16 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C61">
         <v>482</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
       </c>
       <c r="F61">
         <v>90</v>
@@ -2299,7 +2404,877 @@
         <v>-0.08493600026580972</v>
       </c>
       <c r="I61" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62">
+        <v>130</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>90</v>
+      </c>
+      <c r="G62">
+        <v>9.413567322407879</v>
+      </c>
+      <c r="H62">
+        <v>-0.3789241526845291</v>
+      </c>
+      <c r="I62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>138</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>90</v>
+      </c>
+      <c r="G63">
+        <v>7.464042728933082</v>
+      </c>
+      <c r="H63">
+        <v>0.1330777555507054</v>
+      </c>
+      <c r="I63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64">
+        <v>162</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>90</v>
+      </c>
+      <c r="G64">
+        <v>7.344947256597606</v>
+      </c>
+      <c r="H64">
+        <v>0.1605220836977963</v>
+      </c>
+      <c r="I64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65">
+        <v>221</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>90</v>
+      </c>
+      <c r="G65">
+        <v>7.373077235770364</v>
+      </c>
+      <c r="H65">
+        <v>0.1540796368410624</v>
+      </c>
+      <c r="I65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66">
+        <v>236</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>90</v>
+      </c>
+      <c r="G66">
+        <v>6.666302634064373</v>
+      </c>
+      <c r="H66">
+        <v>0.3084844280624263</v>
+      </c>
+      <c r="I66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67">
+        <v>359</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>90</v>
+      </c>
+      <c r="G67">
+        <v>7.231781450022503</v>
+      </c>
+      <c r="H67">
+        <v>0.1861909806813659</v>
+      </c>
+      <c r="I67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68">
+        <v>420</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>90</v>
+      </c>
+      <c r="G68">
+        <v>6.638799143873451</v>
+      </c>
+      <c r="H68">
+        <v>0.3141786963229304</v>
+      </c>
+      <c r="I68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69">
+        <v>471</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>90</v>
+      </c>
+      <c r="G69">
+        <v>6.308866963992461</v>
+      </c>
+      <c r="H69">
+        <v>0.3806521250853168</v>
+      </c>
+      <c r="I69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70">
+        <v>493</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>90</v>
+      </c>
+      <c r="G70">
+        <v>7.047240210669786</v>
+      </c>
+      <c r="H70">
+        <v>0.2271947515700581</v>
+      </c>
+      <c r="I70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71">
+        <v>71</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>90</v>
+      </c>
+      <c r="G71">
+        <v>6.664834456019938</v>
+      </c>
+      <c r="H71">
+        <v>0.308788991546913</v>
+      </c>
+      <c r="I71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72">
+        <v>155</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>90</v>
+      </c>
+      <c r="G72">
+        <v>6.638533698461882</v>
+      </c>
+      <c r="H72">
+        <v>0.3142335389156254</v>
+      </c>
+      <c r="I72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73">
+        <v>161</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>90</v>
+      </c>
+      <c r="G73">
+        <v>6.472451303427809</v>
+      </c>
+      <c r="H73">
+        <v>0.3481172392734381</v>
+      </c>
+      <c r="I73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74">
+        <v>220</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>90</v>
+      </c>
+      <c r="G74">
+        <v>6.938268230467266</v>
+      </c>
+      <c r="H74">
+        <v>0.2509098545785707</v>
+      </c>
+      <c r="I74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75">
+        <v>292</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>90</v>
+      </c>
+      <c r="G75">
+        <v>6.213539937333951</v>
+      </c>
+      <c r="H75">
+        <v>0.3992274223075513</v>
+      </c>
+      <c r="I75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76">
+        <v>336</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>90</v>
+      </c>
+      <c r="G76">
+        <v>7.996500900615907</v>
+      </c>
+      <c r="H76">
+        <v>0.004979808355195736</v>
+      </c>
+      <c r="I76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77">
+        <v>407</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>90</v>
+      </c>
+      <c r="G77">
+        <v>7.266002023545229</v>
+      </c>
+      <c r="H77">
+        <v>0.1784709183657622</v>
+      </c>
+      <c r="I77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78">
+        <v>419</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>90</v>
+      </c>
+      <c r="G78">
+        <v>7.156962483495768</v>
+      </c>
+      <c r="H78">
+        <v>0.2029429744071936</v>
+      </c>
+      <c r="I78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79">
+        <v>433</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>90</v>
+      </c>
+      <c r="G79">
+        <v>7.802000220949202</v>
+      </c>
+      <c r="H79">
+        <v>0.05279533257405544</v>
+      </c>
+      <c r="I79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80">
+        <v>443</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>90</v>
+      </c>
+      <c r="G80">
+        <v>7.960308459335577</v>
+      </c>
+      <c r="H80">
+        <v>0.01396641738533388</v>
+      </c>
+      <c r="I80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81">
+        <v>99</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>90</v>
+      </c>
+      <c r="G81">
+        <v>8.889534421609339</v>
+      </c>
+      <c r="H81">
+        <v>-0.2296738703801255</v>
+      </c>
+      <c r="I81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82">
+        <v>163</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82">
+        <v>90</v>
+      </c>
+      <c r="G82">
+        <v>7.061970396495587</v>
+      </c>
+      <c r="H82">
+        <v>0.2239607304283413</v>
+      </c>
+      <c r="I82" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83">
+        <v>248</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83">
+        <v>90</v>
+      </c>
+      <c r="G83">
+        <v>7.369148029540688</v>
+      </c>
+      <c r="H83">
+        <v>0.1549809999512276</v>
+      </c>
+      <c r="I83" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84">
+        <v>328</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84">
+        <v>90</v>
+      </c>
+      <c r="G84">
+        <v>6.810740470210737</v>
+      </c>
+      <c r="H84">
+        <v>0.2781938540208129</v>
+      </c>
+      <c r="I84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85">
+        <v>339</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85">
+        <v>90</v>
+      </c>
+      <c r="G85">
+        <v>6.30310109207293</v>
+      </c>
+      <c r="H85">
+        <v>0.3817836907624403</v>
+      </c>
+      <c r="I85" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86">
+        <v>357</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86">
+        <v>90</v>
+      </c>
+      <c r="G86">
+        <v>6.367850865624212</v>
+      </c>
+      <c r="H86">
+        <v>0.3690169684840312</v>
+      </c>
+      <c r="I86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87">
+        <v>383</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87">
+        <v>90</v>
+      </c>
+      <c r="G87">
+        <v>6.381438039784453</v>
+      </c>
+      <c r="H87">
+        <v>0.366321420807605</v>
+      </c>
+      <c r="I87" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88">
+        <v>392</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88">
+        <v>90</v>
+      </c>
+      <c r="G88">
+        <v>6.457254266187174</v>
+      </c>
+      <c r="H88">
+        <v>0.3511748308690871</v>
+      </c>
+      <c r="I88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89">
+        <v>409</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89">
+        <v>90</v>
+      </c>
+      <c r="G89">
+        <v>6.528731200355547</v>
+      </c>
+      <c r="H89">
+        <v>0.3367313210316646</v>
+      </c>
+      <c r="I89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90">
+        <v>446</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90">
+        <v>90</v>
+      </c>
+      <c r="G90">
+        <v>6.81054247383172</v>
+      </c>
+      <c r="H90">
+        <v>0.2782358209483523</v>
+      </c>
+      <c r="I90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91">
+        <v>482</v>
+      </c>
+      <c r="D91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91">
+        <v>90</v>
+      </c>
+      <c r="G91">
+        <v>8.349991995004244</v>
+      </c>
+      <c r="H91">
+        <v>-0.08493577781990869</v>
+      </c>
+      <c r="I91" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
